--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H2">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I2">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J2">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>46.00377650578601</v>
+        <v>221.4838210024425</v>
       </c>
       <c r="R2">
-        <v>184.015106023144</v>
+        <v>885.9352840097698</v>
       </c>
       <c r="S2">
-        <v>0.0006148669504921643</v>
+        <v>0.002583080500050338</v>
       </c>
       <c r="T2">
-        <v>0.000303701416284097</v>
+        <v>0.001396106110562669</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H3">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I3">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J3">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>4.121875811379334</v>
+        <v>7.624190832955833</v>
       </c>
       <c r="R3">
-        <v>24.731254868276</v>
+        <v>45.745144997735</v>
       </c>
       <c r="S3">
-        <v>5.509124256638947E-05</v>
+        <v>8.891800123429139E-05</v>
       </c>
       <c r="T3">
-        <v>4.081685081350725E-05</v>
+        <v>7.208774457075222E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H4">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I4">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J4">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>7161.817150579382</v>
+        <v>15626.05246154285</v>
       </c>
       <c r="R4">
-        <v>42970.90290347629</v>
+        <v>93756.31476925711</v>
       </c>
       <c r="S4">
-        <v>0.09572180820427598</v>
+        <v>0.1822406314984507</v>
       </c>
       <c r="T4">
-        <v>0.07091985192319369</v>
+        <v>0.1477464170529112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H5">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I5">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J5">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>200.964899881801</v>
+        <v>719.7972736892663</v>
       </c>
       <c r="R5">
-        <v>803.8595995272041</v>
+        <v>2879.189094757065</v>
       </c>
       <c r="S5">
-        <v>0.002686011552350378</v>
+        <v>0.008394718373743589</v>
       </c>
       <c r="T5">
-        <v>0.001326702487345108</v>
+        <v>0.004537186362487634</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H6">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I6">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J6">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>88.99914772713068</v>
+        <v>15234.92080604496</v>
       </c>
       <c r="R6">
-        <v>533.9948863627841</v>
+        <v>91409.52483626973</v>
       </c>
       <c r="S6">
-        <v>0.001189524832868881</v>
+        <v>0.1776790136443958</v>
       </c>
       <c r="T6">
-        <v>0.0008813135333381043</v>
+        <v>0.1440482149101749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>145.002022</v>
+        <v>268.2087325</v>
       </c>
       <c r="H7">
-        <v>290.004044</v>
+        <v>536.417465</v>
       </c>
       <c r="I7">
-        <v>0.2376076076529671</v>
+        <v>0.4408953672422407</v>
       </c>
       <c r="J7">
-        <v>0.1752271928451109</v>
+        <v>0.3544767530189387</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>10275.67457551213</v>
+        <v>5994.282253019434</v>
       </c>
       <c r="R7">
-        <v>61654.04745307277</v>
+        <v>35965.6935181166</v>
       </c>
       <c r="S7">
-        <v>0.1373403048704133</v>
+        <v>0.06990900522436605</v>
       </c>
       <c r="T7">
-        <v>0.1017548066341364</v>
+        <v>0.0566767408382315</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J8">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>93.90167625690903</v>
+        <v>244.412274152727</v>
       </c>
       <c r="R8">
-        <v>563.4100575414541</v>
+        <v>1466.473644916362</v>
       </c>
       <c r="S8">
-        <v>0.001255049948321664</v>
+        <v>0.002850486218268305</v>
       </c>
       <c r="T8">
-        <v>0.0009298607930727353</v>
+        <v>0.00231095075859318</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J9">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>8.413462489599</v>
@@ -1013,10 +1013,10 @@
         <v>75.721162406391</v>
       </c>
       <c r="S9">
-        <v>0.0001124507685452586</v>
+        <v>9.812297257842813E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001249713937213759</v>
+        <v>0.0001193256205532332</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J10">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>14618.50931738834</v>
+        <v>17243.69301951581</v>
       </c>
       <c r="R10">
-        <v>131566.5838564951</v>
+        <v>155193.2371756423</v>
       </c>
       <c r="S10">
-        <v>0.1953847907158962</v>
+        <v>0.2011065502932344</v>
       </c>
       <c r="T10">
-        <v>0.2171395529226415</v>
+        <v>0.2445621374941495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J11">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>410.2041702017566</v>
+        <v>794.3121434110817</v>
       </c>
       <c r="R11">
-        <v>2461.22502121054</v>
+        <v>4765.87286046649</v>
       </c>
       <c r="S11">
-        <v>0.005482614827923971</v>
+        <v>0.009263756599971817</v>
       </c>
       <c r="T11">
-        <v>0.004062044366300479</v>
+        <v>0.007510327608295907</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J12">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>181.662676236216</v>
+        <v>16812.07062389032</v>
       </c>
       <c r="R12">
-        <v>1634.964086125944</v>
+        <v>151308.6356150128</v>
       </c>
       <c r="S12">
-        <v>0.002428026223924441</v>
+        <v>0.1960727045320448</v>
       </c>
       <c r="T12">
-        <v>0.002698370363505007</v>
+        <v>0.2384405662306708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.4849982837213673</v>
+        <v>0.4865377474677459</v>
       </c>
       <c r="J13">
-        <v>0.5365035780881736</v>
+        <v>0.5867593552488733</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>20974.43167931513</v>
+        <v>6614.822476616274</v>
       </c>
       <c r="R13">
-        <v>188769.8851138361</v>
+        <v>59533.40228954647</v>
       </c>
       <c r="S13">
-        <v>0.2803353512367558</v>
+        <v>0.07714612685164825</v>
       </c>
       <c r="T13">
-        <v>0.3115487782489325</v>
+        <v>0.09381604753661081</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H14">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I14">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J14">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>0.05735840078733333</v>
+        <v>0.014108880328</v>
       </c>
       <c r="R14">
-        <v>0.344150404724</v>
+        <v>0.084653281968</v>
       </c>
       <c r="S14">
-        <v>7.666280391736815E-07</v>
+        <v>1.645464372424689E-07</v>
       </c>
       <c r="T14">
-        <v>5.679912241350358E-07</v>
+        <v>1.334013515070769E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H15">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I15">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J15">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>0.00513923470511111</v>
+        <v>0.0004856733804444444</v>
       </c>
       <c r="R15">
-        <v>0.046253112346</v>
+        <v>0.004371060424</v>
       </c>
       <c r="S15">
-        <v>6.868882972244097E-08</v>
+        <v>5.664221579443217E-09</v>
       </c>
       <c r="T15">
-        <v>7.633686185122709E-08</v>
+        <v>6.888160205071764E-09</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H16">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I16">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J16">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>8.929492526268222</v>
+        <v>0.9954050060231111</v>
       </c>
       <c r="R16">
-        <v>80.36543273641401</v>
+        <v>8.958645054208001</v>
       </c>
       <c r="S16">
-        <v>0.0001193478069866409</v>
+        <v>1.160902520587466E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001326363702948579</v>
+        <v>1.411753130085729E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H17">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I17">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J17">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>0.2505669348723333</v>
+        <v>0.045852259316</v>
       </c>
       <c r="R17">
-        <v>1.503401609234</v>
+        <v>0.275113555896</v>
       </c>
       <c r="S17">
-        <v>3.348971298470315E-06</v>
+        <v>5.347572404446866E-07</v>
       </c>
       <c r="T17">
-        <v>2.481237588781057E-06</v>
+        <v>4.33539247637409E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H18">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I18">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J18">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>0.1109658635182222</v>
+        <v>0.9704892821795555</v>
       </c>
       <c r="R18">
-        <v>0.9986927716640001</v>
+        <v>8.734403539616</v>
       </c>
       <c r="S18">
-        <v>1.483122632369055E-06</v>
+        <v>1.131844271495666E-05</v>
       </c>
       <c r="T18">
-        <v>1.648258209567315E-06</v>
+        <v>1.376415904623077E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1807913333333333</v>
+        <v>0.01708533333333333</v>
       </c>
       <c r="H19">
-        <v>0.542374</v>
+        <v>0.051256</v>
       </c>
       <c r="I19">
-        <v>0.0002962537736040912</v>
+        <v>2.808575337663958E-05</v>
       </c>
       <c r="J19">
-        <v>0.0003277149938370313</v>
+        <v>3.387112023419805E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>12.811910356714</v>
+        <v>0.3818455478026666</v>
       </c>
       <c r="R19">
-        <v>115.307193210426</v>
+        <v>3.436609930224</v>
       </c>
       <c r="S19">
-        <v>0.0001712385558177148</v>
+        <v>4.453317556541659E-06</v>
       </c>
       <c r="T19">
-        <v>0.0001903047996578388</v>
+        <v>5.415601127760436E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H20">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I20">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J20">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>9.757620902586</v>
+        <v>35.9283452331</v>
       </c>
       <c r="R20">
-        <v>39.030483610344</v>
+        <v>143.7133809324</v>
       </c>
       <c r="S20">
-        <v>0.0001304162193657528</v>
+        <v>0.0004190184526827071</v>
       </c>
       <c r="T20">
-        <v>6.441652213717634E-05</v>
+        <v>0.0002264715413311516</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H21">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I21">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J21">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.8742695628459999</v>
+        <v>1.236770068033333</v>
       </c>
       <c r="R21">
-        <v>5.245617377075999</v>
+        <v>7.4206204082</v>
       </c>
       <c r="S21">
-        <v>1.168511589364033E-05</v>
+        <v>1.442397296255604E-05</v>
       </c>
       <c r="T21">
-        <v>8.657449168885529E-06</v>
+        <v>1.169382649392234E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H22">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I22">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J22">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>1519.055652315914</v>
+        <v>2534.804596235733</v>
       </c>
       <c r="R22">
-        <v>9114.333913895483</v>
+        <v>15208.8275774144</v>
       </c>
       <c r="S22">
-        <v>0.02030305308630255</v>
+        <v>0.02956244972811033</v>
       </c>
       <c r="T22">
-        <v>0.01504243960160582</v>
+        <v>0.02396691665695992</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H23">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I23">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J23">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>42.625615910601</v>
+        <v>116.76304314195</v>
       </c>
       <c r="R23">
-        <v>170.502463642404</v>
+        <v>467.0521725678</v>
       </c>
       <c r="S23">
-        <v>0.0005697158898358079</v>
+        <v>0.001361762400979985</v>
       </c>
       <c r="T23">
-        <v>0.0002813999394246096</v>
+        <v>0.0007360067985127058</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H24">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I24">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J24">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>18.877144663664</v>
+        <v>2471.356561581466</v>
       </c>
       <c r="R24">
-        <v>113.262867981984</v>
+        <v>14828.1393694888</v>
       </c>
       <c r="S24">
-        <v>0.0002523039031781811</v>
+        <v>0.02882247973689302</v>
       </c>
       <c r="T24">
-        <v>0.0001869308132463913</v>
+        <v>0.02336700699888808</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>30.755622</v>
+        <v>43.5079</v>
       </c>
       <c r="H25">
-        <v>61.511244</v>
+        <v>87.0158</v>
       </c>
       <c r="I25">
-        <v>0.05039770938710746</v>
+        <v>0.0715205331669754</v>
       </c>
       <c r="J25">
-        <v>0.03716652521759548</v>
+        <v>0.05750200218657192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>2179.519696900926</v>
+        <v>972.3718926121999</v>
       </c>
       <c r="R25">
-        <v>13077.11818140556</v>
+        <v>5834.231355673199</v>
       </c>
       <c r="S25">
-        <v>0.02913053517253152</v>
+        <v>0.01134039887534682</v>
       </c>
       <c r="T25">
-        <v>0.0215826808920126</v>
+        <v>0.00919390636438615</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H26">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I26">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J26">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>43.65757167519433</v>
+        <v>0.4760062501139999</v>
       </c>
       <c r="R26">
-        <v>261.945430051166</v>
+        <v>2.856037500683999</v>
       </c>
       <c r="S26">
-        <v>0.0005835085725721592</v>
+        <v>5.551477561686087E-06</v>
       </c>
       <c r="T26">
-        <v>0.0004323188449848262</v>
+        <v>4.500702792481953E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H27">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I27">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J27">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>3.911659049315444</v>
+        <v>0.016385677618</v>
       </c>
       <c r="R27">
-        <v>35.20493144383899</v>
+        <v>0.147471098562</v>
       </c>
       <c r="S27">
-        <v>5.228157455106242E-05</v>
+        <v>1.910998471292416E-07</v>
       </c>
       <c r="T27">
-        <v>5.810277085802786E-05</v>
+        <v>2.323931618367818E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H28">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I28">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J28">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>6796.562572134278</v>
+        <v>33.583033752256</v>
       </c>
       <c r="R28">
-        <v>61169.06314920849</v>
+        <v>302.247303770304</v>
       </c>
       <c r="S28">
-        <v>0.09083997054093555</v>
+        <v>0.0003916659881763018</v>
       </c>
       <c r="T28">
-        <v>0.1009543809346255</v>
+        <v>0.0004762981171547504</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H29">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I29">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J29">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>190.7156365670218</v>
+        <v>1.546966272933</v>
       </c>
       <c r="R29">
-        <v>1144.293819402131</v>
+        <v>9.281797637598</v>
       </c>
       <c r="S29">
-        <v>0.002549024249180672</v>
+        <v>1.804167182850216E-05</v>
       </c>
       <c r="T29">
-        <v>0.001888560461736532</v>
+        <v>1.462677312072583E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H30">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I30">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J30">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>84.46016753515289</v>
+        <v>32.742425567912</v>
       </c>
       <c r="R30">
-        <v>760.141507816376</v>
+        <v>294.6818301112079</v>
       </c>
       <c r="S30">
-        <v>0.001128858750191197</v>
+        <v>0.0003818622986818094</v>
       </c>
       <c r="T30">
-        <v>0.001254549463298557</v>
+        <v>0.0004643760228489903</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>137.6068803333333</v>
+        <v>0.576426</v>
       </c>
       <c r="H31">
-        <v>412.820641</v>
+        <v>1.729278</v>
       </c>
       <c r="I31">
-        <v>0.2254895565014359</v>
+        <v>0.0009475588307251548</v>
       </c>
       <c r="J31">
-        <v>0.2494358391462612</v>
+        <v>0.001142745884508224</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>9751.612440664951</v>
+        <v>12.882727977468</v>
       </c>
       <c r="R31">
-        <v>87764.51196598457</v>
+        <v>115.944551797212</v>
       </c>
       <c r="S31">
-        <v>0.1303359128140053</v>
+        <v>0.0001502462946297262</v>
       </c>
       <c r="T31">
-        <v>0.1448479266707578</v>
+        <v>0.0001827118754294387</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H32">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I32">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J32">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>0.234385021036</v>
+        <v>0.03551993751999999</v>
       </c>
       <c r="R32">
-        <v>1.406310126216</v>
+        <v>0.21311962512</v>
       </c>
       <c r="S32">
-        <v>3.132690706540611E-06</v>
+        <v>4.142553508226975E-07</v>
       </c>
       <c r="T32">
-        <v>2.320996282841851E-06</v>
+        <v>3.358457624175356E-07</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H33">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I33">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J33">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>0.02100057912933333</v>
+        <v>0.001222711351111111</v>
       </c>
       <c r="R33">
-        <v>0.189005212164</v>
+        <v>0.01100440216</v>
       </c>
       <c r="S33">
-        <v>2.806848269554247E-07</v>
+        <v>1.426001156179477E-08</v>
       </c>
       <c r="T33">
-        <v>3.119371657023829E-07</v>
+        <v>1.73413491661944E-08</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H34">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I34">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J34">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>36.48880137663067</v>
+        <v>2.505990751857777</v>
       </c>
       <c r="R34">
-        <v>328.399212389676</v>
+        <v>22.55391676672</v>
       </c>
       <c r="S34">
-        <v>0.0004876938315431861</v>
+        <v>2.922640495875735E-05</v>
       </c>
       <c r="T34">
-        <v>0.0005419952093323393</v>
+        <v>3.554171685388295E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H35">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I35">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J35">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>1.023897728926</v>
+        <v>0.11543576444</v>
       </c>
       <c r="R35">
-        <v>6.143386373556</v>
+        <v>0.69261458664</v>
       </c>
       <c r="S35">
-        <v>1.368498245185155E-05</v>
+        <v>1.346282860679381E-06</v>
       </c>
       <c r="T35">
-        <v>1.013914119743365E-05</v>
+        <v>1.091460600029874E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H36">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I36">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J36">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>0.4534424931306667</v>
+        <v>2.443263949048888</v>
       </c>
       <c r="R36">
-        <v>4.080982438176</v>
+        <v>21.98937554144</v>
       </c>
       <c r="S36">
-        <v>6.060519899703255E-06</v>
+        <v>2.849484641677086E-05</v>
       </c>
       <c r="T36">
-        <v>6.735317404586861E-06</v>
+        <v>3.46520813821917E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.738772</v>
+        <v>0.04301333333333333</v>
       </c>
       <c r="H37">
-        <v>2.216316</v>
+        <v>0.12904</v>
       </c>
       <c r="I37">
-        <v>0.001210588963518025</v>
+        <v>7.07075389363503E-05</v>
       </c>
       <c r="J37">
-        <v>0.00133914970902166</v>
+        <v>8.527254087367168E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>52.353619299876</v>
+        <v>0.9613186649066664</v>
       </c>
       <c r="R37">
-        <v>471.182573698884</v>
+        <v>8.651867984159997</v>
       </c>
       <c r="S37">
-        <v>0.0006997362540897875</v>
+        <v>1.121148933775823E-05</v>
       </c>
       <c r="T37">
-        <v>0.0007776471076387561</v>
+        <v>1.363409492598343E-05</v>
       </c>
     </row>
   </sheetData>
